--- a/data/trans_dic/P41C_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P41C_R-Provincia-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.01425864128565218</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.007811207357282818</v>
+        <v>0.007811207357282819</v>
       </c>
     </row>
     <row r="5">
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.04359952858724671</v>
+        <v>0.04435427424682457</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02748930919813844</v>
+        <v>0.02800477894754293</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>0.04320124335762643</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.02819582420575904</v>
+        <v>0.02819582420575903</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.03578927793405413</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0104068793885358</v>
+        <v>0.01060506580599149</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1377463634090398</v>
+        <v>0.1498622972054677</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1053940978070495</v>
+        <v>0.08982329573060967</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08571140829002838</v>
+        <v>0.08427728110611683</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.08259876349155493</v>
+        <v>0.0825987634915549</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.08825309344789151</v>
+        <v>0.08825309344789146</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.08549162597207462</v>
+        <v>0.08549162597207459</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03442763775831301</v>
+        <v>0.02963360431729353</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04559933729517666</v>
+        <v>0.04321061613735038</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05052724234474646</v>
+        <v>0.05177284198564706</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1678085935787981</v>
+        <v>0.1778116874930206</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1518279315132115</v>
+        <v>0.1577482153113219</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1332737016168088</v>
+        <v>0.1355424714614532</v>
       </c>
     </row>
     <row r="13">
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.06485602180014767</v>
+        <v>0.06485602180014768</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.05750223402351193</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.0611396488791996</v>
+        <v>0.06113964887919957</v>
       </c>
     </row>
     <row r="14">
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01281184059338408</v>
+        <v>0.01970604919630605</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02510076228962743</v>
+        <v>0.02476360763461027</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2496959183056479</v>
+        <v>0.2328428847292858</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1196536716190451</v>
+        <v>0.1205714503442228</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1521321478343005</v>
+        <v>0.1592611850049093</v>
       </c>
     </row>
     <row r="16">
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002506616351050341</v>
+        <v>0.002547594584513208</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05873434477085311</v>
+        <v>0.06374901835477129</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05326356441185472</v>
+        <v>0.04925114675786704</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03596961918094974</v>
+        <v>0.04196689621777841</v>
       </c>
     </row>
     <row r="19">
@@ -853,10 +853,10 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.009624195555949518</v>
+        <v>0.009854638656887963</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.004588122983050435</v>
+        <v>0.004594034598558426</v>
       </c>
     </row>
     <row r="21">
@@ -868,10 +868,10 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.0858413162203998</v>
+        <v>0.08753180161534706</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04685163157853291</v>
+        <v>0.04250924405389055</v>
       </c>
     </row>
     <row r="22">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.07630574783685501</v>
+        <v>0.07630574783685498</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.05447803239459729</v>
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03654391126006097</v>
+        <v>0.03667578604718393</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03156270364520714</v>
+        <v>0.03149245536227049</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04060913646486565</v>
+        <v>0.03886356871331743</v>
       </c>
     </row>
     <row r="24">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.139379076635867</v>
+        <v>0.1419591736287695</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09360529405228693</v>
+        <v>0.09105553703857627</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09640235233488713</v>
+        <v>0.09178157476088103</v>
       </c>
     </row>
     <row r="25">
@@ -947,7 +947,7 @@
         <v>0.02967018253314163</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.0292182606487524</v>
+        <v>0.02921826064875239</v>
       </c>
     </row>
     <row r="26">
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.007341441058918186</v>
+        <v>0.007308805230564466</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01010552825497663</v>
+        <v>0.01042269321356431</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01393161827001708</v>
+        <v>0.01414314398207142</v>
       </c>
     </row>
     <row r="27">
@@ -975,13 +975,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07077960240463001</v>
+        <v>0.06527096935941205</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.06718190159986892</v>
+        <v>0.06428182464285143</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05290695007451694</v>
+        <v>0.05583459666475197</v>
       </c>
     </row>
     <row r="28">
@@ -1002,7 +1002,7 @@
         <v>0.04106677845705861</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.04105537229113499</v>
+        <v>0.04105537229113498</v>
       </c>
     </row>
     <row r="29">
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02694629720718468</v>
+        <v>0.02689981491535185</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.03056006324792021</v>
+        <v>0.02911533948360192</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03152006685623618</v>
+        <v>0.030677615404891</v>
       </c>
     </row>
     <row r="30">
@@ -1030,13 +1030,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0636327101693028</v>
+        <v>0.06365875518289867</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.05565302965719671</v>
+        <v>0.05547621006030447</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.05317494562323544</v>
+        <v>0.05329169933890091</v>
       </c>
     </row>
     <row r="31">
@@ -1198,10 +1198,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>3157</v>
+        <v>3212</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3633</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="8">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1377</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="11">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9221</v>
+        <v>10032</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6886</v>
+        <v>5869</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11338</v>
+        <v>11148</v>
       </c>
     </row>
     <row r="12">
@@ -1322,13 +1322,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2540</v>
+        <v>2187</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3525</v>
+        <v>3340</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7634</v>
+        <v>7822</v>
       </c>
     </row>
     <row r="15">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12382</v>
+        <v>13120</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11736</v>
+        <v>12194</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20136</v>
+        <v>20479</v>
       </c>
     </row>
     <row r="16">
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>993</v>
+        <v>1528</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3851</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="19">
@@ -1411,13 +1411,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18948</v>
+        <v>17669</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9277</v>
+        <v>9348</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>23339</v>
+        <v>24433</v>
       </c>
     </row>
     <row r="20">
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23">
@@ -1483,13 +1483,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3551</v>
+        <v>3854</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4116</v>
+        <v>3806</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4954</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="24">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>648</v>
@@ -1554,10 +1554,10 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>5673</v>
+        <v>5785</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6612</v>
+        <v>5999</v>
       </c>
     </row>
     <row r="28">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4381</v>
+        <v>4397</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>5650</v>
+        <v>5638</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>12138</v>
+        <v>11616</v>
       </c>
     </row>
     <row r="31">
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>16708</v>
+        <v>17018</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>16756</v>
+        <v>16300</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>28814</v>
+        <v>27433</v>
       </c>
     </row>
     <row r="32">
@@ -1678,13 +1678,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1603</v>
+        <v>1654</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>4495</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="35">
@@ -1695,13 +1695,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>11608</v>
+        <v>10704</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>10659</v>
+        <v>10198</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>17070</v>
+        <v>18015</v>
       </c>
     </row>
     <row r="36">
@@ -1750,13 +1750,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>18748</v>
+        <v>18716</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>23641</v>
+        <v>22524</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>46314</v>
+        <v>45076</v>
       </c>
     </row>
     <row r="39">
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>43053</v>
+        <v>42916</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>78133</v>
+        <v>78304</v>
       </c>
     </row>
     <row r="40">
